--- a/cheats/React/React.xlsx
+++ b/cheats/React/React.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillsemenov/Disk/Engineering/[4] Projects/[11] Portfolio (2025)/web_portfolio/cheats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillsemenov/Disk/Engineering/[4] Projects/[11] Portfolio (2025)/web_portfolio/cheats/React/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E466B490-3940-0540-9DDB-BA285CCED67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49473E1C-618B-8848-9FA7-C7A0C2454933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3311EECC-F214-3B44-9035-2592C8E062A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{3311EECC-F214-3B44-9035-2592C8E062A3}"/>
   </bookViews>
   <sheets>
     <sheet name="React" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="464">
   <si>
     <t>-----------------------</t>
   </si>
@@ -11418,8 +11418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0DC92D-7F96-A342-B235-099DD76042F2}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A52" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11632,7 +11632,9 @@
       <c r="A32" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="33" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
@@ -11751,7 +11753,9 @@
       <c r="A52" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="34"/>
+      <c r="B52" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
@@ -11913,7 +11917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE702F3-29E9-774F-B573-1A9EEFE5EB73}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScale="106" workbookViewId="0">
       <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
@@ -12577,7 +12581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB84829A-1CEE-FA4A-B3F5-DF93B491DCF5}">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScale="137" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -13322,6 +13326,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
@@ -13329,11 +13338,6 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13343,7 +13347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F391B06-6D22-1C45-9D67-543BE4100220}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="134" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="134" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -13651,7 +13655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F7E197-EC4C-AA47-824F-24326AB8993C}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="125" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -14160,7 +14164,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14214,7 +14218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4796A200-848F-E045-B860-459AAE65BB11}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -14755,7 +14759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A354B276-59B8-3D47-9C03-185C7E7C4686}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
